--- a/Assets/mock_data.xlsx
+++ b/Assets/mock_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vignesh Misc\code\discovery-file-upload\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manikvig\Documents\Work\discovery-file-upload\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,115 +459,115 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Assets/mock_data.xlsx
+++ b/Assets/mock_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Questions and Polyfills</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>What are the supported access points?</t>
+  </si>
+  <si>
+    <t>Instant APs</t>
+  </si>
+  <si>
+    <t>iaps.htm</t>
+  </si>
+  <si>
+    <t>What are instant APs?</t>
+  </si>
+  <si>
+    <t>define Instant APs</t>
+  </si>
+  <si>
+    <t>What are IAPs?</t>
+  </si>
+  <si>
+    <t>Define IAPs</t>
   </si>
 </sst>
 </file>
@@ -151,8 +169,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data_table" displayName="data_table" ref="A1:D21">
-  <autoFilter ref="A1:D21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data_table" displayName="data_table" ref="A1:D26">
+  <autoFilter ref="A1:D26">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -431,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +589,40 @@
         <v>23</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
